--- a/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC19C6EC-CD26-41CA-B5E3-9509B85416CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A124EA7B-F811-4044-BD0D-C91D1E730E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74A07860-8256-4998-A744-F715527AC437}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{877F53E3-4F3B-4AA6-A513-2A3020B748C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>16,39%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>53,46%</t>
   </si>
   <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>83,61%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>46,54%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>61,54%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,10 +194,10 @@
     <t>27,9%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>34,31%</t>
@@ -206,31 +206,31 @@
     <t>30,66%</t>
   </si>
   <si>
-    <t>38,34%</t>
+    <t>38,57%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>65,69%</t>
   </si>
   <si>
-    <t>61,66%</t>
+    <t>61,43%</t>
   </si>
   <si>
     <t>69,34%</t>
@@ -239,64 +239,64 @@
     <t>68,87%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDF0983-01F3-4279-9D64-F1EF1948036A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AD64C2-2B07-436E-A400-14F0516DF928}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -987,7 +987,7 @@
         <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>280584</v>
+        <v>280585</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>1092</v>
       </c>
       <c r="D9" s="7">
-        <v>1235973</v>
+        <v>1235974</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A124EA7B-F811-4044-BD0D-C91D1E730E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E173C4D0-354F-4BEB-B6E2-53A132AFEDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{877F53E3-4F3B-4AA6-A513-2A3020B748C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90D61A86-9711-458F-A404-8D02F66CA753}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AD64C2-2B07-436E-A400-14F0516DF928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A50C8E-93E1-4CCE-8D9C-68F123CF7ED2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E173C4D0-354F-4BEB-B6E2-53A132AFEDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE42BDC7-DB42-4EAC-82EF-783010612B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90D61A86-9711-458F-A404-8D02F66CA753}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74C2B7DB-86A7-49DD-8624-854926D8CB72}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
-    <t>Población que se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
+    <t>Población según si se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>16,39%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>53,46%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>83,61%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>46,54%</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>61,54%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,10 +194,10 @@
     <t>27,9%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>34,31%</t>
@@ -206,31 +206,31 @@
     <t>30,66%</t>
   </si>
   <si>
-    <t>38,57%</t>
+    <t>38,34%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>65,69%</t>
   </si>
   <si>
-    <t>61,43%</t>
+    <t>61,66%</t>
   </si>
   <si>
     <t>69,34%</t>
@@ -239,64 +239,64 @@
     <t>68,87%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A50C8E-93E1-4CCE-8D9C-68F123CF7ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71C28B5-EE3F-45A4-8248-D59AEA6D64C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -987,7 +987,7 @@
         <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>280585</v>
+        <v>280584</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>1092</v>
       </c>
       <c r="D9" s="7">
-        <v>1235974</v>
+        <v>1235973</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE42BDC7-DB42-4EAC-82EF-783010612B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEA5B92-4DAB-4166-B6B1-BB67C3921ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74C2B7DB-86A7-49DD-8624-854926D8CB72}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4261165D-1EC8-4330-AD66-2C813B277682}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71C28B5-EE3F-45A4-8248-D59AEA6D64C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC488650-1DCF-44BA-870F-5B3E58980CCA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>21999</v>
+        <v>20913</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>59</v>
       </c>
       <c r="I4" s="7">
-        <v>47672</v>
+        <v>42450</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>88</v>
       </c>
       <c r="N4" s="7">
-        <v>69670</v>
+        <v>63363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>112199</v>
+        <v>111190</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>41495</v>
+        <v>37997</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>153694</v>
+        <v>149187</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>121</v>
       </c>
       <c r="I6" s="7">
-        <v>89167</v>
+        <v>80447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>263</v>
       </c>
       <c r="N6" s="7">
-        <v>223364</v>
+        <v>212550</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>280584</v>
+        <v>263069</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>501</v>
       </c>
       <c r="I7" s="7">
-        <v>362636</v>
+        <v>385312</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>767</v>
       </c>
       <c r="N7" s="7">
-        <v>643220</v>
+        <v>648381</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>826</v>
       </c>
       <c r="D8" s="7">
-        <v>955389</v>
+        <v>1119314</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>764</v>
       </c>
       <c r="I8" s="7">
-        <v>580155</v>
+        <v>559651</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>1590</v>
       </c>
       <c r="N8" s="7">
-        <v>1535544</v>
+        <v>1678965</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1092</v>
       </c>
       <c r="D9" s="7">
-        <v>1235973</v>
+        <v>1382383</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>1265</v>
       </c>
       <c r="I9" s="7">
-        <v>942791</v>
+        <v>944963</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>2357</v>
       </c>
       <c r="N9" s="7">
-        <v>2178764</v>
+        <v>2327346</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="D10" s="7">
-        <v>129153</v>
+        <v>122748</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>238</v>
       </c>
       <c r="I10" s="7">
-        <v>160943</v>
+        <v>148495</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>290096</v>
+        <v>271243</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>333709</v>
+        <v>324532</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>408</v>
       </c>
       <c r="I11" s="7">
-        <v>308194</v>
+        <v>286864</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>708</v>
       </c>
       <c r="N11" s="7">
-        <v>641903</v>
+        <v>611396</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>433</v>
       </c>
       <c r="D12" s="7">
-        <v>462862</v>
+        <v>447280</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>646</v>
       </c>
       <c r="I12" s="7">
-        <v>469137</v>
+        <v>435359</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1079</v>
       </c>
       <c r="N12" s="7">
-        <v>931999</v>
+        <v>882639</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>428</v>
       </c>
       <c r="D13" s="7">
-        <v>431737</v>
+        <v>406730</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>798</v>
       </c>
       <c r="I13" s="7">
-        <v>571250</v>
+        <v>576256</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>1226</v>
       </c>
       <c r="N13" s="7">
-        <v>1002986</v>
+        <v>982987</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>1239</v>
       </c>
       <c r="D14" s="7">
-        <v>1401296</v>
+        <v>1555036</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>1234</v>
       </c>
       <c r="I14" s="7">
-        <v>929844</v>
+        <v>884513</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>2473</v>
       </c>
       <c r="N14" s="7">
-        <v>2331141</v>
+        <v>2439548</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>1667</v>
       </c>
       <c r="D15" s="7">
-        <v>1833033</v>
+        <v>1961766</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>2032</v>
       </c>
       <c r="I15" s="7">
-        <v>1501094</v>
+        <v>1460769</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>3699</v>
       </c>
       <c r="N15" s="7">
-        <v>3334127</v>
+        <v>3422535</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
